--- a/data/project_collected_data/GDP National Accounts 2024 Annual.xlsx
+++ b/data/project_collected_data/GDP National Accounts 2024 Annual.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\NISR\National Accounts\GDPSystem_2024\GDP SYSTEM Q4 2024\GDP SYSTEM Q4 2024\GDP P\Tables\Final\updated\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\AIMS_DSCBI\Projects\MINECOFIN\Macro_Dashboard\data\project_collected_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B39A1075-2481-48C1-97FA-FBD066610A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE38F370-C1F7-4895-A54C-83C47B946D64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57495" yWindow="0" windowWidth="19410" windowHeight="20985" firstSheet="4" activeTab="7" xr2:uid="{C8677AA5-F7A7-4B9D-A60C-DD710A63A403}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="11460" firstSheet="4" activeTab="7" xr2:uid="{C8677AA5-F7A7-4B9D-A60C-DD710A63A403}"/>
   </bookViews>
   <sheets>
     <sheet name="Table A" sheetId="1" r:id="rId1"/>
@@ -1145,12 +1145,7 @@
     <cellStyle name="Percent 2" xfId="5" xr:uid="{BC3921CC-1249-4B29-81C1-50B2C1B64662}"/>
     <cellStyle name="Percent 2 2" xfId="8" xr:uid="{EEFDF4EA-A07B-4C0C-82D2-D0C4FD07B104}"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FFFF0000"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FFFF0000"/>
@@ -4475,7 +4470,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D6:AC43">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="8" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8297,7 +8292,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E7:AD46">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -15814,22 +15809,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="E8:Q8 E45:Q45">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="6" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7:AD7">
-    <cfRule type="cellIs" dxfId="6" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9:AD44">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E46:AD46">
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -26806,11 +26801,11 @@
   <dimension ref="A2:AD73"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="5" topLeftCell="N6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="5" topLeftCell="X6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="Q22" sqref="Q22"/>
       <selection pane="topRight" activeCell="Q22" sqref="Q22"/>
       <selection pane="bottomLeft" activeCell="Q22" sqref="Q22"/>
-      <selection pane="bottomRight" activeCell="O3" sqref="O3:AD3"/>
+      <selection pane="bottomRight" activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="13" x14ac:dyDescent="0.6"/>
@@ -31860,12 +31855,12 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:AD2">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="lessThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D27:AD27">
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
